--- a/data/trans_dic/P20B-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P20B-Estudios-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.2958882394696541</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.3341690686533742</v>
+        <v>0.3341690686533741</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.3166626468725177</v>
@@ -685,7 +685,7 @@
         <v>0.3667257449298761</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.2504189898342076</v>
+        <v>0.2504189898342075</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.2943972278018941</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1653774961484254</v>
+        <v>0.165840871534674</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1985984275439185</v>
+        <v>0.1942236562869857</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1900905333106669</v>
+        <v>0.178588180024236</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2365988961195797</v>
+        <v>0.22965262114929</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2356863701285359</v>
+        <v>0.2367840727810928</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2094238839395803</v>
+        <v>0.2112777712579359</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.262698798534694</v>
+        <v>0.2589119158143994</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1745368018978862</v>
+        <v>0.1743207697817727</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2282893770836997</v>
+        <v>0.230605335903377</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2258826361859992</v>
+        <v>0.2253651721462234</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2527148885427901</v>
+        <v>0.2591772549466204</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2237163316203709</v>
+        <v>0.2252886077823599</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3725966982467323</v>
+        <v>0.3700731011989495</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.385827475124688</v>
+        <v>0.3861813134684142</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4423328286496399</v>
+        <v>0.4360291509470007</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4528681067953611</v>
+        <v>0.4423779112860063</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4151707578188714</v>
+        <v>0.406813484399949</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3742054125569975</v>
+        <v>0.3825125203300295</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4838821986676315</v>
+        <v>0.4823485028433945</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.345397676670435</v>
+        <v>0.3439244825750335</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.367264878147976</v>
+        <v>0.3672160988512685</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3535244743194723</v>
+        <v>0.3517173465783622</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4259218836725048</v>
+        <v>0.4178283587027877</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3641780078050106</v>
+        <v>0.3689781503909524</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.4195238030712321</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.3556601613679245</v>
+        <v>0.3556601613679247</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.1247944336478827</v>
@@ -821,7 +821,7 @@
         <v>0.2359268233181976</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.2395338971873371</v>
+        <v>0.239533897187337</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.1496076851892529</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1083855711301953</v>
+        <v>0.104094021015377</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2247966070724112</v>
+        <v>0.2317909974247722</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3111481633995724</v>
+        <v>0.3103572853939048</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2611443849512395</v>
+        <v>0.2661303741750171</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.07548242094987437</v>
+        <v>0.08212114791349538</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.152254457995499</v>
+        <v>0.1582197796459002</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1702136868817688</v>
+        <v>0.1687288720315226</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1781598949212718</v>
+        <v>0.1731870154800881</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1022059698032941</v>
+        <v>0.09943641452372533</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1960981537550475</v>
+        <v>0.1961029847872939</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2408927113023991</v>
+        <v>0.2392347564382476</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2312611069077091</v>
+        <v>0.2261045004019653</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3590801331136525</v>
+        <v>0.346488376795036</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4166791239186813</v>
+        <v>0.4245987649933867</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5322713119072667</v>
+        <v>0.5340308501043837</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4533197376936826</v>
+        <v>0.4613918384183566</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1895262350000499</v>
+        <v>0.1969237826309533</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.286133655949919</v>
+        <v>0.2949008470405212</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3156490271261086</v>
+        <v>0.3148358121156594</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3207442578517923</v>
+        <v>0.3245862153032181</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2097319555549651</v>
+        <v>0.2070434016922178</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3059707668044154</v>
+        <v>0.316273169167725</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3714507082352643</v>
+        <v>0.3741584489947463</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3524871389102543</v>
+        <v>0.3517737555935031</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.1668970082680741</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.276336362976689</v>
+        <v>0.2763363629766891</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.1214800230869617</v>
@@ -969,7 +969,7 @@
         <v>0.0888691110917755</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.2273171996936056</v>
+        <v>0.2273171996936057</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1664169986804654</v>
+        <v>0.1720594884713127</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.05343512133158428</v>
+        <v>0.03694468073784878</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1447352535861009</v>
+        <v>0.1480105972439099</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02930771198899298</v>
+        <v>0.02954151570597523</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.09859070439130405</v>
+        <v>0.09233799278165766</v>
       </c>
       <c r="I11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1090856905735222</v>
+        <v>0.1132157845308448</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1242972523644833</v>
+        <v>0.1306462568759405</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1169055097061177</v>
+        <v>0.1199255632902269</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.03873886424782393</v>
+        <v>0.0375788154865124</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1546431265500486</v>
+        <v>0.1543164152009248</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5989295332634552</v>
+        <v>0.5973478659867171</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5995944597567096</v>
+        <v>0.6133037547162628</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3895837616827637</v>
+        <v>0.3776421325031262</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4498361610808806</v>
+        <v>0.4731090638091808</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2858764771075546</v>
+        <v>0.2999207376055243</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3588509761811051</v>
+        <v>0.3730934070254057</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1385665300483953</v>
+        <v>0.1358570117643987</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3002987564769444</v>
+        <v>0.2982951910981074</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3475330057984677</v>
+        <v>0.3541439511516356</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3500645951761055</v>
+        <v>0.3729140791097347</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1783525908704184</v>
+        <v>0.1768882394324559</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3359072076887177</v>
+        <v>0.3363441289367089</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.2786938489210258</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.2781077920073647</v>
+        <v>0.2781077920073648</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1830524697558018</v>
+        <v>0.18977884689868</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2341835529415638</v>
+        <v>0.2276797218571152</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2624940483578942</v>
+        <v>0.264902479549987</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2682739967005121</v>
+        <v>0.2691325239327138</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1572661301764162</v>
+        <v>0.1556056068906921</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1998354733789942</v>
+        <v>0.1947541617069954</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1921303480164307</v>
+        <v>0.1932809052918325</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1867020663385366</v>
+        <v>0.1877395591076358</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1815077311453312</v>
+        <v>0.1805203362427505</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.22416355193884</v>
+        <v>0.2264442099711189</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2350172219506103</v>
+        <v>0.2354083753650303</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2382566296412824</v>
+        <v>0.2390419154389096</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3389237593735156</v>
+        <v>0.3392457584281728</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.361410681342252</v>
+        <v>0.3659250398068002</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4081006630758622</v>
+        <v>0.4183779958695406</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4036666414529094</v>
+        <v>0.3983837612021793</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2540611946219508</v>
+        <v>0.2576700904987361</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2930387831503881</v>
+        <v>0.2948484358868057</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3038407881599366</v>
+        <v>0.3016669912027148</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2953301315273403</v>
+        <v>0.2906505074267933</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2627774922395265</v>
+        <v>0.2650107077365864</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3039825049889701</v>
+        <v>0.303749768664548</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3232685664287526</v>
+        <v>0.3264660617577071</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3203983003510412</v>
+        <v>0.3214210486137822</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>10931</v>
+        <v>10962</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>19700</v>
+        <v>19266</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>10530</v>
+        <v>9893</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>13779</v>
+        <v>13374</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>23678</v>
+        <v>23788</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>28241</v>
+        <v>28491</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>21644</v>
+        <v>21332</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>10559</v>
+        <v>10546</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>38024</v>
+        <v>38410</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>52867</v>
+        <v>52746</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>34820</v>
+        <v>35710</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>26563</v>
+        <v>26750</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>24628</v>
+        <v>24461</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>38273</v>
+        <v>38308</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>24502</v>
+        <v>24153</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>26374</v>
+        <v>25763</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>41709</v>
+        <v>40870</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>50462</v>
+        <v>51582</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>39868</v>
+        <v>39742</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>20896</v>
+        <v>20807</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>61172</v>
+        <v>61164</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>82741</v>
+        <v>82318</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>58685</v>
+        <v>57570</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>43241</v>
+        <v>43811</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>4881</v>
+        <v>4688</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>21181</v>
+        <v>21840</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>25235</v>
+        <v>25171</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>27574</v>
+        <v>28100</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>8608</v>
+        <v>9365</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>24103</v>
+        <v>25048</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>24107</v>
+        <v>23897</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>23983</v>
+        <v>23314</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>16258</v>
+        <v>15817</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>49521</v>
+        <v>49522</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>53655</v>
+        <v>53286</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>55550</v>
+        <v>54311</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>16170</v>
+        <v>15603</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>39260</v>
+        <v>40006</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>43169</v>
+        <v>43312</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>47865</v>
+        <v>48717</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>21613</v>
+        <v>22457</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>45298</v>
+        <v>46686</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>44705</v>
+        <v>44590</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>43177</v>
+        <v>43694</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>33362</v>
+        <v>32935</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>77267</v>
+        <v>79869</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>82735</v>
+        <v>83338</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>84668</v>
+        <v>84497</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>3803</v>
+        <v>3932</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1388</v>
+        <v>960</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>5860</v>
+        <v>5992</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>993</v>
+        <v>1000</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>4079</v>
+        <v>3821</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>5432</v>
+        <v>5638</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>7050</v>
+        <v>7410</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>6429</v>
+        <v>6596</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>2769</v>
+        <v>2686</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>13962</v>
+        <v>13932</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>13686</v>
+        <v>13650</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>8167</v>
+        <v>8354</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>10121</v>
+        <v>9811</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>18212</v>
+        <v>19154</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>9681</v>
+        <v>10157</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>14848</v>
+        <v>15437</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>6306</v>
+        <v>6183</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>14955</v>
+        <v>14855</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>19711</v>
+        <v>20086</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>19253</v>
+        <v>20509</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>12750</v>
+        <v>12646</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>30327</v>
+        <v>30367</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>24526</v>
+        <v>25427</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>48485</v>
+        <v>47138</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>42649</v>
+        <v>43041</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>54811</v>
+        <v>54987</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>39060</v>
+        <v>38647</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>66852</v>
+        <v>65152</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>51785</v>
+        <v>52095</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>45726</v>
+        <v>45980</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>69399</v>
+        <v>69022</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>121401</v>
+        <v>122636</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>101529</v>
+        <v>101698</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>107030</v>
+        <v>107383</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>45410</v>
+        <v>45453</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>74826</v>
+        <v>75760</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>66307</v>
+        <v>67977</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>82474</v>
+        <v>81394</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>63100</v>
+        <v>63997</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>98032</v>
+        <v>98637</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>81895</v>
+        <v>81309</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>72330</v>
+        <v>71184</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>100473</v>
+        <v>101327</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>164629</v>
+        <v>164503</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>139655</v>
+        <v>141036</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>143930</v>
+        <v>144390</v>
       </c>
     </row>
     <row r="20">
